--- a/TestingProcedureAndResults.xlsx
+++ b/TestingProcedureAndResults.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Test Number</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>General Running Instructions: Run the script on the command line with a config file argument</t>
+  </si>
+  <si>
+    <t>Document count_negative</t>
+  </si>
+  <si>
+    <t>The third file have a random mapping, shouldn’t be included in the output.</t>
+  </si>
+  <si>
+    <t>Clean the third file as well.</t>
+  </si>
+  <si>
+    <t>Do not need to fix the duplicate label problems.</t>
   </si>
 </sst>
 </file>
@@ -203,14 +215,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -500,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -519,20 +531,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
@@ -601,6 +613,9 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -788,11 +803,23 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TestingProcedureAndResults.xlsx
+++ b/TestingProcedureAndResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26580" windowHeight="17580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31700" windowHeight="18600"/>
   </bookViews>
   <sheets>
     <sheet name="Testing" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Test Number</t>
   </si>
@@ -59,16 +59,94 @@
     <t>General Running Instructions: Run the script on the command line with a config file argument</t>
   </si>
   <si>
-    <t>Document count_negative</t>
-  </si>
-  <si>
-    <t>The third file have a random mapping, shouldn’t be included in the output.</t>
-  </si>
-  <si>
-    <t>Clean the third file as well.</t>
-  </si>
-  <si>
-    <t>Do not need to fix the duplicate label problems.</t>
+    <t xml:space="preserve">Specify a config file that has invalid file, or non-existent </t>
+  </si>
+  <si>
+    <t>Invalid file/type (not .csv or .xlsx or non-existent)</t>
+  </si>
+  <si>
+    <t>invalid.yml</t>
+  </si>
+  <si>
+    <t>An error is raised in the terminal indicating that file opening failed. The program should then exit.</t>
+  </si>
+  <si>
+    <t>The ordering of columns is correct, and the attribute columns are renamed to their labels. If there are duplicate labels, the original value name should be added in the renamed version in parenthesis. If there is a missing mapping of any attribute column, then keep it as is.</t>
+  </si>
+  <si>
+    <t>Run with regular fault_map_config file that specifies the duplicate map file.</t>
+  </si>
+  <si>
+    <t>Run with regular config file with regular data</t>
+  </si>
+  <si>
+    <t>fault_map_config.yml (config), value.csv (input), fault_map.xlsx (map)</t>
+  </si>
+  <si>
+    <t>config.yml (config), value.csv (input), map.xlsx (map)</t>
+  </si>
+  <si>
+    <t>All columns without Q should be treated as attributes. If some attributes are specifically specified in the config file to be questions as well, then pivot them. Otherwise, these columns are not pivoted.</t>
+  </si>
+  <si>
+    <t>All questions (starting with Q) should be pivoted, unless explicitly excluded from data analysis.</t>
+  </si>
+  <si>
+    <t>Run with exclude_config file with regular data</t>
+  </si>
+  <si>
+    <t>exclude_config.yml (config), value.csv (input), map.xlsx (map)</t>
+  </si>
+  <si>
+    <t>If there are multiple mapping in response's value-label, raise an error to the user and exit the program.</t>
+  </si>
+  <si>
+    <t>Run with duplicate_label_to_value config file that specifies a duplicate_label_to_value map file</t>
+  </si>
+  <si>
+    <t>duplicate_label_to_value_config.yml (config), value.csv (input), update_label_to_value_map.xlsx (map)</t>
+  </si>
+  <si>
+    <t>An error is raised indicating there is a duplicate mapping for the same key for a response. The message should specify what they key is of what question that has the duplicate labels.</t>
+  </si>
+  <si>
+    <t>Run with special_map config file that specifies a special map file</t>
+  </si>
+  <si>
+    <t>special_map_config.yml (config), value.csv (input), special_map (map)</t>
+  </si>
+  <si>
+    <t>The domain should still be computed correctly, as well as count negative and median.</t>
+  </si>
+  <si>
+    <t>In the response's map sheet (hence RMS) of the map file, the ordering for the questions' variables should not matter. The domain still need to have no duplicate values.</t>
+  </si>
+  <si>
+    <t>The ordering of the responses' values in RMS should not matter.</t>
+  </si>
+  <si>
+    <t>Non-positive values of the responses in RMS should not matter, in the sense that it won't crash the script. However, print out a warning message to the user.</t>
+  </si>
+  <si>
+    <t>The discontinuity of values of the responses in RMS should not matter, in the sense that it won't crash the script. However, print out a warning message to the user.</t>
+  </si>
+  <si>
+    <t>The script should still execute and exit successfully. Warning messages should be printed out about the discontinuity of which question.</t>
+  </si>
+  <si>
+    <t>The script should still execute and exit successfully. Warning messages should be printed out about the non-positive value of which question.</t>
+  </si>
+  <si>
+    <t>If there is no responses' map for a question, then the domain of that question should be empty, hence count_negative and median will be 0.</t>
+  </si>
+  <si>
+    <t>Count_negative and median column of this question should be 0.</t>
+  </si>
+  <si>
+    <t>All columns without Q should be treated as attributes. Only attributes that have been explicted specified as question should be pivoted.</t>
+  </si>
+  <si>
+    <t>All questions should be pivoted, unless excluded from analysis.</t>
   </si>
 </sst>
 </file>
@@ -183,7 +261,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,9 +290,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -223,6 +298,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -512,17 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="49" style="7" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="49" style="7" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="45.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
@@ -531,20 +613,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
@@ -579,109 +661,193 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
@@ -689,137 +855,146 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TestingProcedureAndResults.xlsx
+++ b/TestingProcedureAndResults.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/survey_pivoter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spapacci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31700" windowHeight="18600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Test Number</t>
   </si>
@@ -147,6 +144,15 @@
   </si>
   <si>
     <t>All questions should be pivoted, unless excluded from analysis.</t>
+  </si>
+  <si>
+    <t>If there is no responses' map for a question, then the value in the answer text column should be the same as the value in the answer value column</t>
+  </si>
+  <si>
+    <t>If there is no question text for a question number, then provide the question number as the question text and alert the user.</t>
+  </si>
+  <si>
+    <t>Is the output a single .xlsx file?</t>
   </si>
 </sst>
 </file>
@@ -175,12 +181,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -195,6 +195,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,14 +257,14 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -290,6 +295,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -299,10 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -595,47 +600,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="51.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="49" style="7" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="104.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="7"/>
+    <col min="9" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -661,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -680,7 +685,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -699,7 +704,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -718,7 +723,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -737,7 +742,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -756,7 +761,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -775,7 +780,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -794,7 +799,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -813,7 +818,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -832,7 +837,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -851,128 +856,134 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -983,17 +994,17 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
     </row>
   </sheetData>
@@ -1002,5 +1013,6 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestingProcedureAndResults.xlsx
+++ b/TestingProcedureAndResults.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spapacci\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/survey_pivoter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832"/>
+    <workbookView xWindow="6360" yWindow="480" windowWidth="24460" windowHeight="18440"/>
   </bookViews>
   <sheets>
     <sheet name="Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testing!$A$5:$H$28</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Test Number</t>
   </si>
@@ -68,9 +74,6 @@
     <t>An error is raised in the terminal indicating that file opening failed. The program should then exit.</t>
   </si>
   <si>
-    <t>The ordering of columns is correct, and the attribute columns are renamed to their labels. If there are duplicate labels, the original value name should be added in the renamed version in parenthesis. If there is a missing mapping of any attribute column, then keep it as is.</t>
-  </si>
-  <si>
     <t>Run with regular fault_map_config file that specifies the duplicate map file.</t>
   </si>
   <si>
@@ -89,12 +92,6 @@
     <t>All questions (starting with Q) should be pivoted, unless explicitly excluded from data analysis.</t>
   </si>
   <si>
-    <t>Run with exclude_config file with regular data</t>
-  </si>
-  <si>
-    <t>exclude_config.yml (config), value.csv (input), map.xlsx (map)</t>
-  </si>
-  <si>
     <t>If there are multiple mapping in response's value-label, raise an error to the user and exit the program.</t>
   </si>
   <si>
@@ -122,18 +119,12 @@
     <t>The ordering of the responses' values in RMS should not matter.</t>
   </si>
   <si>
-    <t>Non-positive values of the responses in RMS should not matter, in the sense that it won't crash the script. However, print out a warning message to the user.</t>
-  </si>
-  <si>
     <t>The discontinuity of values of the responses in RMS should not matter, in the sense that it won't crash the script. However, print out a warning message to the user.</t>
   </si>
   <si>
     <t>The script should still execute and exit successfully. Warning messages should be printed out about the discontinuity of which question.</t>
   </si>
   <si>
-    <t>The script should still execute and exit successfully. Warning messages should be printed out about the non-positive value of which question.</t>
-  </si>
-  <si>
     <t>If there is no responses' map for a question, then the domain of that question should be empty, hence count_negative and median will be 0.</t>
   </si>
   <si>
@@ -152,14 +143,161 @@
     <t>If there is no question text for a question number, then provide the question number as the question text and alert the user.</t>
   </si>
   <si>
-    <t>Is the output a single .xlsx file?</t>
+    <t>The question text of a question that doesn't have the corresponding label is the question value itself.</t>
+  </si>
+  <si>
+    <t>The value in the answer text column for &lt;x value&gt; is the same as the value.</t>
+  </si>
+  <si>
+    <t>There is a single column containing the question number</t>
+  </si>
+  <si>
+    <t>There is a single column containing the question text</t>
+  </si>
+  <si>
+    <t>There is a single column containing the group question number (identify by the pattern)</t>
+  </si>
+  <si>
+    <t>There is a single column containing the group question text (identify by the longest common string of member's question texts)</t>
+  </si>
+  <si>
+    <t>There is a single column containing the response numerical value</t>
+  </si>
+  <si>
+    <t>There is a single column containing the response textual value (based on response map)</t>
+  </si>
+  <si>
+    <t>The column should be question_varname</t>
+  </si>
+  <si>
+    <t>The column should be question_text</t>
+  </si>
+  <si>
+    <t>The column should be group_question_varname</t>
+  </si>
+  <si>
+    <t>The column should be group_question_text</t>
+  </si>
+  <si>
+    <t>The column should be answer_value</t>
+  </si>
+  <si>
+    <t>The column should be answer_text</t>
+  </si>
+  <si>
+    <t>The ordering of the columns is correct (documented in software specifications).</t>
+  </si>
+  <si>
+    <t>There is a single output file .xlsx.</t>
+  </si>
+  <si>
+    <t>The order should be: attributes - question group - question - response - count_neg - median - weight</t>
+  </si>
+  <si>
+    <t>The attributes columns are renamed to the corresponding text labels. If there are duplicate labels, the original value name should be added in the renamed version in parenthesis.</t>
+  </si>
+  <si>
+    <t>If there is a missing mapping of any attribute column, then keep it as is.</t>
+  </si>
+  <si>
+    <t>Duplicate attribute's labels will be appended with their original value in parenthesis.</t>
+  </si>
+  <si>
+    <t>Missing attributes' labels will be replaced with their original value</t>
+  </si>
+  <si>
+    <t>Count negative is correct</t>
+  </si>
+  <si>
+    <t>Normalized by median is correct</t>
+  </si>
+  <si>
+    <t>Anything above the middle value should get 0, otherwise 1. The middle value, if computable, should be 0.5.</t>
+  </si>
+  <si>
+    <t>The median should be computed correctly, and the offset is rounded up to the nearest integer in magnitude (-0.5 to -1), or (0.5 to 1)</t>
+  </si>
+  <si>
+    <t>All columns without Q are not pivoted, except for V1 and V2, which are specified to be questions as well.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>There is a single output file in .xlsx format.</t>
+  </si>
+  <si>
+    <t>The order is correct, with the value followed by the text for relevant columns.</t>
+  </si>
+  <si>
+    <t>There exists a column called question_text containing questions with their actual text.</t>
+  </si>
+  <si>
+    <t>There exists a column called question_varname containing questions in the Q#(_#) format.</t>
+  </si>
+  <si>
+    <t>There exists a column called question_group_text containing questions with the longest common string of its members' texts.</t>
+  </si>
+  <si>
+    <t>There exists a column called question_group_varname containing questions in the Q#* format.</t>
+  </si>
+  <si>
+    <t>There exists a column called answer_value containing numerical responses (if appropriate). There can be textual values in this column as well.</t>
+  </si>
+  <si>
+    <t>There exists a column called answer_text containing textual responses to the numerical responses from the answer_value column. When the numerical response is not numerical, then the value is copied here.</t>
+  </si>
+  <si>
+    <t>A domain from 0 to 42 has a middle value of 21. Anything above 21 has value of 0, below of 1 and 21 has value of 0.5. Other domain is correct as well.</t>
+  </si>
+  <si>
+    <t>A domain from 1 to 4 has a median of 2.5. The offset from 4 to 2.5 is rounded up to 2, 3 to 1, 2 to -1, 1 to -2. Other domain is correct as well.</t>
+  </si>
+  <si>
+    <t>Q45 is included in the columns_to_ignore config, and is not pivoted in the output file.</t>
+  </si>
+  <si>
+    <t>Key 37 for question 2 has two different mappings (Religion and Romance Language). An error is raised and the program exits.</t>
+  </si>
+  <si>
+    <t>V2 is missing, so use V2 as column name. A warning is printed out to the terminal.</t>
+  </si>
+  <si>
+    <t>Duplicate attribute's labels will be appended with their original value in parenthesis. (V8, V9, Name)</t>
+  </si>
+  <si>
+    <t>If there is a missing mapping for a response of a question, but that response is found in the input file, raise an error with a message and exit the program.</t>
+  </si>
+  <si>
+    <t>An error message is printed out in the terminal and the program should exit.</t>
+  </si>
+  <si>
+    <t>No response map for Q67, and answer_text is the same as answer_value for Q67</t>
+  </si>
+  <si>
+    <t>Q3's label is missing, and we see Q3 in question_text that correspond to Q3 in question_varname</t>
+  </si>
+  <si>
+    <t>No response map for Q67, the domain for these responses are 0, count_neg and median are both 0</t>
+  </si>
+  <si>
+    <t>missing_response_map_config.yml (config), value.csv (input), missing_response_map (map)</t>
+  </si>
+  <si>
+    <t>Discontinuity in question Q4_1 message is printed. Program continues to execute successfully.</t>
+  </si>
+  <si>
+    <t>The domain, count_negative and median are all computed correctly.</t>
+  </si>
+  <si>
+    <t>Q2a response map is missing value of 2. An error message is printed out in the terminal and the program should exit.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +336,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -255,8 +399,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,9 +445,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -308,18 +455,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,49 +754,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="51.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="49" style="7" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="104.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="7"/>
+    <col min="6" max="6" width="45.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -666,31 +822,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -699,315 +859,514 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A5:H28">
+    <sortState ref="A6:H29">
+      <sortCondition ref="C5:C29"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:H3"/>
